--- a/app/config/tables/pediatria/forms/initroundsQuick/initroundsQuick.xlsx
+++ b/app/config/tables/pediatria/forms/initroundsQuick/initroundsQuick.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5595F-01F4-4580-8396-D775AF0BBB1C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E539F-A263-4A45-81D3-6733C53B4ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19773,7 +19773,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="b">
         <v>1</v>
@@ -19795,7 +19795,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="13" t="b">
         <v>1</v>
@@ -19817,7 +19817,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/initroundsQuick/initroundsQuick.xlsx
+++ b/app/config/tables/pediatria/forms/initroundsQuick/initroundsQuick.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E539F-A263-4A45-81D3-6733C53B4ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1200A7-4F75-4213-8D4C-9EBA1B1EAF9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="902">
   <si>
     <t>setting_name</t>
   </si>
@@ -1720,9 +1720,6 @@
     <t>data('vpinjVI')</t>
   </si>
   <si>
-    <t>Date of VAS (Sarampo 1)</t>
-  </si>
-  <si>
     <t>Data de VAS (Sarampo 1)</t>
   </si>
   <si>
@@ -1741,9 +1738,6 @@
     <t>Date of VAA (Yellow fever)</t>
   </si>
   <si>
-    <t>Data de VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>data('vfamVI')&gt;=data('dob')|| data('vfamVI')==null</t>
   </si>
   <si>
@@ -1801,9 +1795,6 @@
     <t>VPI</t>
   </si>
   <si>
-    <t>VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>defdiag1</t>
   </si>
   <si>
@@ -1885,9 +1876,6 @@
     <t>Idade da criança (dias)</t>
   </si>
   <si>
-    <t>Choose studies</t>
-  </si>
-  <si>
     <t>Choose all studynr prefixes</t>
   </si>
   <si>
@@ -1960,9 +1948,6 @@
     <t>Does the child live in the project area?</t>
   </si>
   <si>
-    <t>A criança vive na area de estudo de PSB ?</t>
-  </si>
-  <si>
     <t>selected(data('project'),'1')</t>
   </si>
   <si>
@@ -2218,12 +2203,6 @@
     <t>If older than 5</t>
   </si>
   <si>
-    <t>Did the child take part in the April 2018 campaign?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Abril de 2018 ? </t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -2638,7 +2617,127 @@
     <t>pediatria</t>
   </si>
   <si>
-    <t>Day of round</t>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Day of check</t>
+  </si>
+  <si>
+    <t>Dia de cheque</t>
+  </si>
+  <si>
+    <t>Assistente</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Choose studie(s)</t>
+  </si>
+  <si>
+    <t>Escolha estudoa(s)</t>
+  </si>
+  <si>
+    <t>A criança vive na area de estudo de PSB?</t>
+  </si>
+  <si>
+    <t>Descrição de onde a criança vive</t>
+  </si>
+  <si>
+    <t>As pessoas do projeto vêm pela aldeia?</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Nome da tabanca</t>
+  </si>
+  <si>
+    <t>Outra:</t>
+  </si>
+  <si>
+    <t>Date of VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Data de VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>VAS (Sarampo 1)</t>
+  </si>
+  <si>
+    <t>VAA (Yellow fever)</t>
+  </si>
+  <si>
+    <t>VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>Did the child take part in the May 2019 campaign?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Maio de 2019 ? </t>
+  </si>
+  <si>
+    <t>Seccao</t>
+  </si>
+  <si>
+    <t>Camo</t>
+  </si>
+  <si>
+    <t>O que foi feito para encontrar a criança?</t>
   </si>
 </sst>
 </file>
@@ -2689,7 +2788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2747,12 +2846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,7 +2914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2848,17 +2941,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -3211,7 +3303,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3220,7 +3312,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3277,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3301,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -3349,9 +3441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:R1093"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G421" sqref="G421:H421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3505,7 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>143</v>
@@ -3438,10 +3530,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G3" t="s">
-        <v>868</v>
+        <v>879</v>
+      </c>
+      <c r="H3" t="s">
+        <v>880</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3460,10 +3555,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="G4" t="s">
-        <v>866</v>
+        <v>859</v>
+      </c>
+      <c r="H4" t="s">
+        <v>881</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3509,6 +3607,9 @@
       <c r="G8" t="s">
         <v>401</v>
       </c>
+      <c r="H8" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -3517,7 +3618,7 @@
     </row>
     <row r="10" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -3532,10 +3633,10 @@
         <v>328</v>
       </c>
       <c r="G11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P11" t="s">
         <v>410</v>
@@ -3553,10 +3654,10 @@
         <v>336</v>
       </c>
       <c r="G12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,10 +3693,10 @@
         <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Q15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,10 +3705,10 @@
         <v>422</v>
       </c>
       <c r="G16" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H16" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,10 +3720,10 @@
         <v>304</v>
       </c>
       <c r="G17" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P17" t="s">
         <v>410</v>
@@ -3637,19 +3738,19 @@
         <v>327</v>
       </c>
       <c r="G18" t="s">
+        <v>607</v>
+      </c>
+      <c r="H18" t="s">
+        <v>608</v>
+      </c>
+      <c r="I18" t="s">
+        <v>609</v>
+      </c>
+      <c r="J18" t="s">
         <v>610</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>611</v>
-      </c>
-      <c r="I18" t="s">
-        <v>612</v>
-      </c>
-      <c r="J18" t="s">
-        <v>613</v>
-      </c>
-      <c r="K18" t="s">
-        <v>614</v>
       </c>
       <c r="P18" t="s">
         <v>410</v>
@@ -3661,13 +3762,13 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="G19" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H19" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="P19" t="s">
         <v>410</v>
@@ -3682,10 +3783,10 @@
         <v>320</v>
       </c>
       <c r="G20" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H20" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P20" t="s">
         <v>410</v>
@@ -3721,10 +3822,13 @@
         <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>617</v>
+        <v>883</v>
+      </c>
+      <c r="H24" t="s">
+        <v>884</v>
       </c>
       <c r="Q24" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,13 +3840,13 @@
     <row r="26" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,10 +3861,10 @@
         <v>373</v>
       </c>
       <c r="C28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Q28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,10 +3876,10 @@
         <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Q29" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3787,16 +3891,16 @@
         <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="Q30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,7 +3915,7 @@
         <v>410</v>
       </c>
       <c r="Q31" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3823,10 +3927,10 @@
         <v>308</v>
       </c>
       <c r="L32" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q32" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,10 +3945,10 @@
         <v>373</v>
       </c>
       <c r="C34" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,10 +3960,10 @@
         <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="Q35" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,10 +3975,10 @@
         <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H36" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3901,7 +4005,7 @@
         <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,10 +4020,10 @@
         <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="Q40" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,10 +4035,10 @@
         <v>295</v>
       </c>
       <c r="L41" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="Q41" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,10 +4050,10 @@
         <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H42" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -3976,7 +4080,7 @@
         <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,7 +4097,7 @@
     </row>
     <row r="47" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -4008,10 +4112,10 @@
         <v>319</v>
       </c>
       <c r="G48" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="H48" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="P48" t="s">
         <v>410</v>
@@ -4023,7 +4127,7 @@
         <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F49" t="s">
         <v>284</v>
@@ -4035,10 +4139,10 @@
         <v>373</v>
       </c>
       <c r="C50" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Q50" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4083,10 +4187,10 @@
         <v>333</v>
       </c>
       <c r="G55" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H55" t="s">
-        <v>642</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -4095,10 +4199,10 @@
         <v>373</v>
       </c>
       <c r="C56" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Q56" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,13 +4217,13 @@
         <v>234</v>
       </c>
       <c r="G57" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H57" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="Q57" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4128,10 +4232,10 @@
         <v>373</v>
       </c>
       <c r="C58" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="Q58" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -4146,10 +4250,10 @@
         <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H59" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P59" t="s">
         <v>410</v>
@@ -4164,7 +4268,7 @@
         <v>339</v>
       </c>
       <c r="L60" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -4179,10 +4283,10 @@
         <v>373</v>
       </c>
       <c r="C62" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="Q62" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4197,10 +4301,10 @@
         <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H63" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P63" t="s">
         <v>410</v>
@@ -4215,7 +4319,7 @@
         <v>339</v>
       </c>
       <c r="L64" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4230,10 +4334,10 @@
         <v>373</v>
       </c>
       <c r="C66" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="Q66" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4248,10 +4352,10 @@
         <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H67" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P67" t="s">
         <v>410</v>
@@ -4266,7 +4370,7 @@
         <v>339</v>
       </c>
       <c r="L68" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4281,10 +4385,10 @@
         <v>373</v>
       </c>
       <c r="C70" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="Q70" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4299,10 +4403,10 @@
         <v>244</v>
       </c>
       <c r="G71" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H71" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P71" t="s">
         <v>410</v>
@@ -4317,7 +4421,7 @@
         <v>339</v>
       </c>
       <c r="L72" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4332,10 +4436,10 @@
         <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="Q74" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4350,10 +4454,10 @@
         <v>245</v>
       </c>
       <c r="G75" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H75" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P75" t="s">
         <v>410</v>
@@ -4368,7 +4472,7 @@
         <v>339</v>
       </c>
       <c r="L76" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4383,10 +4487,10 @@
         <v>373</v>
       </c>
       <c r="C78" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="Q78" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4401,10 +4505,10 @@
         <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H79" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="P79" t="s">
         <v>410</v>
@@ -4419,7 +4523,7 @@
         <v>339</v>
       </c>
       <c r="L80" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -4434,10 +4538,10 @@
         <v>373</v>
       </c>
       <c r="C82" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="Q82" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -4449,7 +4553,10 @@
         <v>249</v>
       </c>
       <c r="G83" t="s">
-        <v>835</v>
+        <v>828</v>
+      </c>
+      <c r="H83" t="s">
+        <v>886</v>
       </c>
       <c r="P83" t="s">
         <v>410</v>
@@ -4464,7 +4571,7 @@
         <v>339</v>
       </c>
       <c r="L84" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -4479,10 +4586,10 @@
         <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q86" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -4494,10 +4601,10 @@
         <v>218</v>
       </c>
       <c r="G87" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H87" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="P87" t="s">
         <v>410</v>
@@ -4521,10 +4628,10 @@
         <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="Q89" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -4551,10 +4658,10 @@
         <v>373</v>
       </c>
       <c r="C92" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Q92" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -4563,16 +4670,19 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G93" t="s">
-        <v>835</v>
+        <v>828</v>
+      </c>
+      <c r="H93" t="s">
+        <v>886</v>
       </c>
       <c r="P93" t="s">
         <v>410</v>
       </c>
       <c r="Q93" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -4599,10 +4709,10 @@
         <v>373</v>
       </c>
       <c r="C97" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="Q97" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -4617,7 +4727,10 @@
         <v>338</v>
       </c>
       <c r="G98" t="s">
-        <v>836</v>
+        <v>829</v>
+      </c>
+      <c r="H98" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -4626,10 +4739,10 @@
         <v>402</v>
       </c>
       <c r="C99" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="Q99" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4644,7 +4757,10 @@
         <v>252</v>
       </c>
       <c r="G100" t="s">
-        <v>681</v>
+        <v>676</v>
+      </c>
+      <c r="H100" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -4656,10 +4772,10 @@
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H101" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P101" t="s">
         <v>410</v>
@@ -4674,7 +4790,10 @@
         <v>337</v>
       </c>
       <c r="G102" t="s">
-        <v>684</v>
+        <v>679</v>
+      </c>
+      <c r="H102" t="s">
+        <v>889</v>
       </c>
       <c r="P102" t="s">
         <v>410</v>
@@ -4713,10 +4832,10 @@
         <v>329</v>
       </c>
       <c r="G107" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H107" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P107" t="s">
         <v>410</v>
@@ -4731,10 +4850,10 @@
         <v>325</v>
       </c>
       <c r="G108" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H108" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="P108" t="s">
         <v>410</v>
@@ -4764,10 +4883,10 @@
         <v>291</v>
       </c>
       <c r="G111" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H111" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -4776,10 +4895,10 @@
         <v>373</v>
       </c>
       <c r="C112" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="Q112" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -4794,10 +4913,10 @@
         <v>292</v>
       </c>
       <c r="G113" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>890</v>
       </c>
       <c r="P113" t="s">
         <v>410</v>
@@ -4815,10 +4934,10 @@
         <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="Q115" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -4830,7 +4949,7 @@
         <v>324</v>
       </c>
       <c r="L116" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -4839,7 +4958,7 @@
         <v>376</v>
       </c>
       <c r="Q117" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -4851,7 +4970,7 @@
         <v>324</v>
       </c>
       <c r="L118" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -4872,10 +4991,10 @@
         <v>322</v>
       </c>
       <c r="G120" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H120" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -4884,10 +5003,10 @@
         <v>373</v>
       </c>
       <c r="C121" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q121" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -4899,10 +5018,10 @@
         <v>323</v>
       </c>
       <c r="G122" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="H122" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="P122" t="s">
         <v>410</v>
@@ -4926,10 +5045,10 @@
         <v>326</v>
       </c>
       <c r="G124" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H124" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -4938,7 +5057,7 @@
         <v>373</v>
       </c>
       <c r="C125" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
@@ -4947,10 +5066,10 @@
         <v>375</v>
       </c>
       <c r="F126" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="L126" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -4959,10 +5078,10 @@
         <v>375</v>
       </c>
       <c r="F127" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="L127" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
@@ -4992,10 +5111,10 @@
         <v>330</v>
       </c>
       <c r="G131" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H131" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="P131" t="s">
         <v>410</v>
@@ -5013,10 +5132,10 @@
         <v>53</v>
       </c>
       <c r="G132" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H132" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
@@ -5229,10 +5348,10 @@
         <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Q149" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
@@ -5244,13 +5363,13 @@
         <v>290</v>
       </c>
       <c r="G150" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H150" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="J150" t="s">
         <v>408</v>
@@ -5281,7 +5400,7 @@
         <v>373</v>
       </c>
       <c r="C152" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I152" s="3"/>
       <c r="Q152" t="s">
@@ -5298,7 +5417,7 @@
       </c>
       <c r="I153" s="3"/>
       <c r="L153" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
@@ -5321,7 +5440,7 @@
       </c>
       <c r="I155" s="3"/>
       <c r="L155" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
@@ -5359,10 +5478,10 @@
         <v>331</v>
       </c>
       <c r="G160" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H160" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="P160" t="s">
         <v>410</v>
@@ -5377,10 +5496,10 @@
         <v>343</v>
       </c>
       <c r="G161" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H161" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="P161" t="s">
         <v>410</v>
@@ -5395,13 +5514,13 @@
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C163" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="Q163" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
@@ -5557,7 +5676,7 @@
         <v>373</v>
       </c>
       <c r="C171" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -5577,7 +5696,7 @@
         <v>375</v>
       </c>
       <c r="F172" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -5585,7 +5704,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -5606,7 +5725,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -5650,10 +5769,10 @@
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C176" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -5667,7 +5786,7 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
@@ -5832,7 +5951,7 @@
         <v>373</v>
       </c>
       <c r="C184" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -5852,7 +5971,7 @@
         <v>375</v>
       </c>
       <c r="F185" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -5860,7 +5979,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -5881,7 +6000,7 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -5913,7 +6032,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B189" t="s">
         <v>17</v>
@@ -5943,10 +6062,10 @@
         <v>373</v>
       </c>
       <c r="C191" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="Q191" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
@@ -5967,7 +6086,7 @@
         <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -5975,7 +6094,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -5994,7 +6113,7 @@
         <v>373</v>
       </c>
       <c r="C195" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="Q195" t="s">
         <v>441</v>
@@ -6009,7 +6128,7 @@
         <v>28</v>
       </c>
       <c r="F196" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G196" t="s">
         <v>442</v>
@@ -6036,7 +6155,7 @@
         <v>373</v>
       </c>
       <c r="C199" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="Q199" t="s">
         <v>441</v>
@@ -6054,10 +6173,10 @@
         <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L201" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
@@ -8684,13 +8803,13 @@
         <v>282</v>
       </c>
       <c r="G338" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="H338" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H338" s="1" t="s">
+      <c r="I338" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="I338" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="J338" s="1" t="s">
         <v>447</v>
@@ -8734,7 +8853,7 @@
         <v>373</v>
       </c>
       <c r="C340" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -8765,7 +8884,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -8807,7 +8926,7 @@
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
@@ -8842,13 +8961,13 @@
         <v>283</v>
       </c>
       <c r="G345" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="I345" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="H345" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I345" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="J345" s="1" t="s">
         <v>447</v>
@@ -8880,10 +8999,10 @@
         <v>373</v>
       </c>
       <c r="C347" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q347" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
@@ -8899,7 +9018,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
       <c r="L348" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
@@ -8930,7 +9049,7 @@
         <v>373</v>
       </c>
       <c r="C350" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
@@ -8959,7 +9078,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
@@ -8999,7 +9118,7 @@
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
       <c r="L353" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
@@ -9054,10 +9173,10 @@
         <v>373</v>
       </c>
       <c r="C357" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="Q357" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -9074,10 +9193,10 @@
         <v>375</v>
       </c>
       <c r="F359" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L359" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
@@ -9094,6 +9213,9 @@
       <c r="G360" t="s">
         <v>189</v>
       </c>
+      <c r="H360" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
@@ -9107,7 +9229,10 @@
         <v>332</v>
       </c>
       <c r="G361" t="s">
-        <v>576</v>
+        <v>574</v>
+      </c>
+      <c r="H361" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
@@ -9134,7 +9259,10 @@
         <v>352</v>
       </c>
       <c r="G364" t="s">
-        <v>577</v>
+        <v>575</v>
+      </c>
+      <c r="H364" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
@@ -9149,7 +9277,10 @@
         <v>353</v>
       </c>
       <c r="G365" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+      <c r="H365" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.25">
@@ -9164,7 +9295,10 @@
         <v>354</v>
       </c>
       <c r="G366" t="s">
-        <v>579</v>
+        <v>577</v>
+      </c>
+      <c r="H366" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.25">
@@ -9179,7 +9313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="10"/>
       <c r="D369" t="s">
         <v>9</v>
@@ -9191,10 +9325,13 @@
         <v>346</v>
       </c>
       <c r="G369" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="H369" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="D370" t="s">
         <v>9</v>
@@ -9206,10 +9343,13 @@
         <v>347</v>
       </c>
       <c r="G370" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="H370" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="D371" t="s">
         <v>9</v>
@@ -9221,22 +9361,25 @@
         <v>348</v>
       </c>
       <c r="G371" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="H371" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="D374" t="s">
         <v>9</v>
@@ -9248,10 +9391,13 @@
         <v>349</v>
       </c>
       <c r="G374" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="H374" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="D375" t="s">
         <v>9</v>
@@ -9263,10 +9409,13 @@
         <v>350</v>
       </c>
       <c r="G375" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="H375" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="D376" t="s">
         <v>9</v>
@@ -9278,22 +9427,25 @@
         <v>351</v>
       </c>
       <c r="G376" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="H376" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="D379" t="s">
         <v>9</v>
@@ -9305,10 +9457,13 @@
         <v>334</v>
       </c>
       <c r="G379" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="H379" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="D380" t="s">
         <v>9</v>
@@ -9320,22 +9475,25 @@
         <v>335</v>
       </c>
       <c r="G380" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="H380" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="10"/>
       <c r="D383" t="s">
         <v>9</v>
@@ -9347,10 +9505,13 @@
         <v>355</v>
       </c>
       <c r="G383" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="H383" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="10"/>
       <c r="D384" t="s">
         <v>9</v>
@@ -9362,7 +9523,10 @@
         <v>356</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>562</v>
+        <v>893</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
@@ -9377,7 +9541,10 @@
         <v>345</v>
       </c>
       <c r="G385" t="s">
-        <v>589</v>
+        <v>895</v>
+      </c>
+      <c r="H385" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.25">
@@ -9423,10 +9590,10 @@
         <v>311</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>728</v>
+        <v>897</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>729</v>
+        <v>898</v>
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -9449,10 +9616,10 @@
         <v>312</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -9469,15 +9636,15 @@
         <v>375</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
-      <c r="L391" s="25">
-        <v>1804</v>
+      <c r="L391" s="24">
+        <v>1905</v>
       </c>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
@@ -9490,7 +9657,7 @@
         <v>373</v>
       </c>
       <c r="C392" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
@@ -9510,7 +9677,7 @@
         <v>375</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
@@ -9518,7 +9685,7 @@
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
       <c r="L393" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
@@ -9550,7 +9717,7 @@
     </row>
     <row r="396" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B396" t="s">
         <v>17</v>
@@ -9568,10 +9735,10 @@
         <v>368</v>
       </c>
       <c r="G397" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="H397" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="398" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9625,10 +9792,10 @@
         <v>369</v>
       </c>
       <c r="G402" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H402" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="403" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9679,13 +9846,13 @@
         <v>357</v>
       </c>
       <c r="F407" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G407" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="H407" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="408" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9697,7 +9864,7 @@
         <v>371</v>
       </c>
       <c r="F408" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="409" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9706,7 +9873,7 @@
         <v>373</v>
       </c>
       <c r="C409" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="410" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9715,7 +9882,7 @@
         <v>375</v>
       </c>
       <c r="F410" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="L410">
         <v>9999</v>
@@ -9734,15 +9901,15 @@
       </c>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A413" s="23" t="s">
-        <v>834</v>
+      <c r="A413" s="22" t="s">
+        <v>827</v>
       </c>
       <c r="B413" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="414" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="26"/>
+      <c r="A414" s="25"/>
       <c r="D414" t="s">
         <v>35</v>
       </c>
@@ -9750,29 +9917,35 @@
         <v>398</v>
       </c>
       <c r="F414" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G414" t="s">
-        <v>829</v>
+        <v>822</v>
+      </c>
+      <c r="H414" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="26"/>
+      <c r="A415" s="25"/>
       <c r="D415" t="s">
         <v>19</v>
       </c>
       <c r="F415" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G415" t="s">
-        <v>830</v>
+        <v>823</v>
+      </c>
+      <c r="H415" t="s">
+        <v>900</v>
       </c>
       <c r="P415" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="416" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="26"/>
+      <c r="A416" s="25"/>
       <c r="D416" t="s">
         <v>145</v>
       </c>
@@ -9780,68 +9953,71 @@
         <v>399</v>
       </c>
       <c r="F416" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="417" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="26"/>
+      <c r="A417" s="25"/>
       <c r="B417" t="s">
         <v>373</v>
       </c>
       <c r="C417" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="418" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="26"/>
+      <c r="A418" s="25"/>
       <c r="D418" t="s">
         <v>375</v>
       </c>
       <c r="F418" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="L418">
         <v>9999</v>
       </c>
     </row>
     <row r="419" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="26"/>
+      <c r="A419" s="25"/>
       <c r="B419" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="420" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="26"/>
+      <c r="A420" s="25"/>
       <c r="B420" t="s">
         <v>373</v>
       </c>
       <c r="C420" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="26"/>
+      <c r="A421" s="25"/>
       <c r="D421" t="s">
         <v>8</v>
       </c>
       <c r="F421" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G421" t="s">
-        <v>833</v>
+        <v>826</v>
+      </c>
+      <c r="H421" t="s">
+        <v>901</v>
       </c>
       <c r="P421" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="26"/>
+      <c r="A422" s="25"/>
       <c r="B422" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A423" s="26"/>
+      <c r="A423" s="25"/>
       <c r="B423" t="s">
         <v>18</v>
       </c>
@@ -15435,8 +15611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="A190" sqref="A1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15444,7 +15620,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15665,7 +15841,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -15677,7 +15855,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -16210,7 +16390,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -16222,7 +16404,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -16262,7 +16446,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -16344,7 +16530,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -16356,7 +16544,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -16384,7 +16574,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -16676,7 +16868,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -16688,7 +16882,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -16728,7 +16924,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -16740,7 +16938,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -16780,7 +16980,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -16792,7 +16994,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -16832,7 +17036,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -16844,7 +17050,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -16884,7 +17092,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -16896,11 +17106,13 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -17928,7 +18140,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -17940,20 +18154,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="21" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17968,7 +18184,9 @@
       <c r="C171" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -17981,7 +18199,9 @@
       <c r="C172" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -17994,7 +18214,9 @@
       <c r="C173" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -18007,7 +18229,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -18020,7 +18244,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -18033,7 +18259,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -18046,7 +18274,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -18059,7 +18289,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -18072,7 +18304,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -18085,7 +18319,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -18098,7 +18334,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -18111,7 +18349,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -18124,7 +18364,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -18137,7 +18379,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -18150,7 +18394,9 @@
       <c r="C185" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -18163,7 +18409,9 @@
       <c r="C186" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -18176,7 +18424,9 @@
       <c r="C187" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -18189,7 +18439,9 @@
       <c r="C188" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -18201,20 +18453,22 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -18222,13 +18476,13 @@
         <v>398</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -18236,13 +18490,13 @@
         <v>398</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -18250,13 +18504,13 @@
         <v>398</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -18264,13 +18518,13 @@
         <v>398</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -18278,13 +18532,13 @@
         <v>398</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -18292,13 +18546,13 @@
         <v>398</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -18306,13 +18560,13 @@
         <v>398</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -18320,13 +18574,13 @@
         <v>398</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -18334,13 +18588,13 @@
         <v>398</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -18348,13 +18602,13 @@
         <v>398</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -18362,13 +18616,13 @@
         <v>398</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -18376,13 +18630,13 @@
         <v>398</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -18393,10 +18647,10 @@
         <v>61</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -18410,11 +18664,13 @@
       <c r="C204" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
@@ -18423,11 +18679,13 @@
       <c r="C205" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
@@ -18436,11 +18694,13 @@
       <c r="C206" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
@@ -18449,11 +18709,13 @@
       <c r="C207" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
@@ -18462,50 +18724,58 @@
       <c r="C208" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>740</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>741</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>742</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -18520,119 +18790,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -18645,33 +18915,37 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
-        <v>756</v>
+      <c r="A222" s="25" t="s">
+        <v>749</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>750</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>741</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -18686,212 +18960,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>840</v>
+      <c r="C225" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>841</v>
+      <c r="C226" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="28" t="s">
-        <v>842</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>842</v>
+      <c r="C227" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>843</v>
+      <c r="C228" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>844</v>
+      <c r="C229" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>845</v>
+      <c r="C230" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>846</v>
+      <c r="C231" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>847</v>
+      <c r="C232" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>848</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>848</v>
+      <c r="C233" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>849</v>
+      <c r="C234" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>850</v>
+      <c r="C235" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>851</v>
+      <c r="C236" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>852</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>852</v>
+      <c r="C237" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>853</v>
+      <c r="C238" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -18994,7 +19268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A121" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -19033,7 +19307,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -19121,7 +19395,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>19</v>
@@ -19132,7 +19406,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -19242,7 +19516,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -19253,7 +19527,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -19264,7 +19538,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>8</v>
@@ -19275,7 +19549,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -19495,7 +19769,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>19</v>
@@ -19594,7 +19868,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>9</v>
@@ -19627,7 +19901,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>8</v>
@@ -20430,7 +20704,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>8</v>
@@ -20463,7 +20737,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>145</v>
@@ -20473,162 +20747,162 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>854</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C134" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="B135" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="30" t="b">
+      <c r="C135" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="B136" s="23" t="s">
+      <c r="A136" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="B136" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="23" t="b">
+      <c r="C136" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="B137" s="23" t="s">
+      <c r="A137" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="B137" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="23" t="b">
+      <c r="C137" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="B138" s="23" t="s">
+      <c r="A138" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="B138" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="23" t="b">
+      <c r="C138" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="B139" s="23" t="s">
+      <c r="A139" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="B139" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="23" t="b">
+      <c r="C139" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="23" t="b">
+      <c r="C140" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="23" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="B142" s="24" t="s">
+      <c r="A142" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="24" t="b">
+      <c r="C142" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="B143" s="24" t="s">
+      <c r="A143" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="24" t="b">
+      <c r="C143" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="B144" s="24" t="s">
+      <c r="A144" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="24" t="b">
+      <c r="C144" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="B145" s="22" t="s">
+      <c r="A145" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="B145" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C145" s="22" t="b">
+      <c r="C145" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="B146" s="22" t="s">
+      <c r="A146" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="22" t="b">
+      <c r="C146" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B147" s="22" t="s">
+      <c r="A147" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="22" t="b">
+      <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>8</v>
@@ -20639,7 +20913,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>8</v>
@@ -20650,7 +20924,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>8</v>
@@ -20661,7 +20935,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>8</v>
@@ -20672,7 +20946,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>19</v>
@@ -20683,7 +20957,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>19</v>
@@ -20694,7 +20968,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>19</v>
@@ -20705,7 +20979,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>19</v>
@@ -20716,7 +20990,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>306</v>
@@ -20727,7 +21001,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B157" s="17" t="s">
         <v>19</v>
@@ -20738,7 +21012,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>19</v>
@@ -20749,7 +21023,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>19</v>
@@ -20782,7 +21056,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>35</v>
@@ -20793,7 +21067,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>35</v>
@@ -20804,7 +21078,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>19</v>
@@ -20815,7 +21089,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>145</v>
@@ -20826,7 +21100,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>145</v>
@@ -20837,7 +21111,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>145</v>
@@ -20848,7 +21122,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>145</v>
@@ -20859,7 +21133,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>19</v>
@@ -20870,7 +21144,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>145</v>
@@ -20881,7 +21155,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="19" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>145</v>
@@ -20892,7 +21166,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>145</v>
@@ -20903,7 +21177,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>145</v>
@@ -20925,7 +21199,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>35</v>
@@ -20936,7 +21210,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>145</v>
@@ -20947,7 +21221,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>145</v>
